--- a/Documentation/Danske Personvogne.xlsx
+++ b/Documentation/Danske Personvogne.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD74371-73DE-4A77-BA07-517C15FE9B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037809E8-8B94-4C87-9E78-835C481148D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forklaring" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Danske damplokomotiver" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -242,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="375">
   <si>
     <t>name=BR-390FrontCab</t>
   </si>
@@ -700,9 +699,6 @@
     <t>Hvor X er et ens nummer mellem 0 og 7, som definerer en "restrictive constraint" for køretøjet</t>
   </si>
   <si>
-    <t>Højeste opholdstid ved en station i sekunder, hvis alt godste/passagerer losses og læsses</t>
-  </si>
-  <si>
     <t>Mindste opholdstid ved en station i sekunder, hvor intet gods/passagerer bliver lastet/losset</t>
   </si>
   <si>
@@ -1277,6 +1273,123 @@
   </si>
   <si>
     <t>CL (I)</t>
+  </si>
+  <si>
+    <t>eksempel</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>kun extended?</t>
+  </si>
+  <si>
+    <t>Forklaring</t>
+  </si>
+  <si>
+    <t>overcrowded_capacity</t>
+  </si>
+  <si>
+    <t>upgrade[0]</t>
+  </si>
+  <si>
+    <t>way_constraint_permissive[X]</t>
+  </si>
+  <si>
+    <t>way_constraint_prohibitive[X]</t>
+  </si>
+  <si>
+    <t>min_loading_time</t>
+  </si>
+  <si>
+    <t>Constraint[Prev][0]</t>
+  </si>
+  <si>
+    <t>Constraint[Next][0]</t>
+  </si>
+  <si>
+    <t>liverytype[0]</t>
+  </si>
+  <si>
+    <t>liverytype[1]</t>
+  </si>
+  <si>
+    <t>liverytype[2]</t>
+  </si>
+  <si>
+    <t>EmptyImage[E][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[SE][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[S][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[SW][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[W][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[NW][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[N][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[NE][0]</t>
+  </si>
+  <si>
+    <t>EmptyImage[E][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[SE][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[S][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[SW][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[W][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[NW][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[N][1]</t>
+  </si>
+  <si>
+    <t>EmptyImage[NE][1]</t>
+  </si>
+  <si>
+    <t>freightimagetype[0]</t>
+  </si>
+  <si>
+    <t>FreightImage[X][E]</t>
+  </si>
+  <si>
+    <t>Højeste opholdstid ved en station i sekunder, hvis alt godset/passagerer losses og læsses</t>
+  </si>
+  <si>
+    <t>increase_maintenance_after_years</t>
+  </si>
+  <si>
+    <t>increase_maintenance_after_years=30</t>
+  </si>
+  <si>
+    <t>years_before_maintenance_max_reached=50</t>
+  </si>
+  <si>
+    <t>years_before_maintenance_max_reached</t>
+  </si>
+  <si>
+    <t>Hvor mange år går der, fra produktionen er stoppet, til vedligeholdelsesomkostningerne stiger?</t>
+  </si>
+  <si>
+    <t>Hvor mange år går der, til vedligeholdelsesomkostningerne når maks? Lineær stigning, maks defineres i simuconf.tab</t>
   </si>
 </sst>
 </file>
@@ -1696,739 +1809,1019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAB390C-EB3C-47C0-B1C9-8DBD38503A44}">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="S18" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="S19" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B43" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
         <v>148</v>
       </c>
-      <c r="B50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="K52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" t="s">
         <v>150</v>
       </c>
-      <c r="J51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B57" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B62" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B58" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B63" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D84" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R17" r:id="rId1" xr:uid="{2E8022C6-8143-4EAD-9403-920444866EAF}"/>
-    <hyperlink ref="R18" r:id="rId2" xr:uid="{99E61DFA-6847-470C-92F2-C80C99D7FE2A}"/>
+    <hyperlink ref="S18" r:id="rId1" xr:uid="{2E8022C6-8143-4EAD-9403-920444866EAF}"/>
+    <hyperlink ref="S19" r:id="rId2" xr:uid="{99E61DFA-6847-470C-92F2-C80C99D7FE2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2450,11 +2843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2869,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2506,10 +2899,10 @@
         <v>72</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="N1" t="s">
         <v>47</v>
@@ -2518,7 +2911,7 @@
         <v>131</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="9" t="s">
         <v>48</v>
@@ -2545,7 +2938,7 @@
         <v>54</v>
       </c>
       <c r="Y1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z1" t="s">
         <v>55</v>
@@ -2584,31 +2977,31 @@
         <v>66</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM1" t="s">
         <v>67</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO1" t="s">
         <v>68</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ1" t="s">
         <v>69</v>
       </c>
       <c r="AR1" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AS1" t="s">
         <v>70</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU1" t="s">
         <v>71</v>
@@ -2625,10 +3018,10 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="6">
         <v>50</v>
@@ -2640,10 +3033,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S2" s="9">
         <v>32</v>
@@ -2655,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB2" s="7">
         <v>10.6</v>
@@ -2677,10 +3070,10 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6">
         <v>50</v>
@@ -2692,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R3" s="9">
         <v>60</v>
@@ -2704,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB3" s="7">
         <v>9.6</v>
@@ -2722,10 +3115,10 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -2737,16 +3130,16 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P4" s="8">
         <v>1000</v>
       </c>
       <c r="Y4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB4" s="7">
         <v>12.5</v>
@@ -2761,19 +3154,19 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <v>1863</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S5" s="9">
         <v>24</v>
@@ -2803,19 +3196,19 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>1865</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R6" s="9">
         <v>30</v>
@@ -2845,10 +3238,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>1863</v>
@@ -2857,10 +3250,10 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R7" s="9">
         <v>50</v>
@@ -2884,10 +3277,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8">
         <v>1856</v>
@@ -2896,16 +3289,16 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P8" s="8">
         <v>900</v>
       </c>
       <c r="Y8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB8" s="7">
         <v>15.1</v>
@@ -2920,19 +3313,19 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9">
         <v>1868</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R9" s="9">
         <v>100</v>
@@ -2956,19 +3349,19 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10">
         <v>1877</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S10" s="9">
         <v>16</v>
@@ -2980,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB10" s="7">
         <v>10.5</v>
@@ -3001,52 +3394,52 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11">
         <v>1863</v>
       </c>
       <c r="J11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R11" s="9">
         <v>40</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AN11" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>1870</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R12" s="9">
         <v>56</v>
@@ -3071,24 +3464,24 @@
         <v>1365</v>
       </c>
       <c r="AP12" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>1877</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R13" s="9">
         <v>64</v>
@@ -3118,19 +3511,19 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F14">
         <v>1880</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R14" s="9">
         <v>40</v>
@@ -3139,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="Y14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB14" s="7">
         <v>9.5</v>
@@ -3154,19 +3547,19 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15">
         <v>1885</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S15" s="9">
         <v>14</v>
@@ -3178,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB15" s="7">
         <v>13.5</v>
@@ -3194,30 +3587,30 @@
         <v>1780</v>
       </c>
       <c r="AQ15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR15" s="11">
         <v>2000</v>
       </c>
       <c r="AS15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16">
         <v>1888</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R16" s="9">
         <v>20</v>
@@ -3226,7 +3619,7 @@
         <v>14</v>
       </c>
       <c r="Y16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB16" s="7">
         <v>12.4</v>
@@ -3245,30 +3638,30 @@
         <v>1800</v>
       </c>
       <c r="AQ16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17">
         <v>1888</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R17" s="9">
         <v>30</v>
       </c>
       <c r="Y17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB17" s="7">
         <v>12.2</v>
@@ -3286,25 +3679,25 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18">
         <v>1891</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R18" s="9">
         <v>50</v>
       </c>
       <c r="Y18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB18" s="7">
         <v>11.5</v>
@@ -3322,19 +3715,19 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19">
         <v>1892</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S19" s="9">
         <v>28</v>
@@ -3346,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB19" s="7">
         <v>27.2</v>
@@ -3362,30 +3755,30 @@
         <v>1900</v>
       </c>
       <c r="AQ19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR19" s="11">
         <v>2100</v>
       </c>
       <c r="AS19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20">
         <v>1862</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S20" s="9">
         <v>24</v>
@@ -3397,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB20" s="7">
         <v>9.3000000000000007</v>
@@ -3418,25 +3811,25 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21">
         <v>1862</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R21" s="9">
         <v>50</v>
       </c>
       <c r="Y21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB21" s="7">
         <v>8</v>
@@ -3454,19 +3847,19 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22">
         <v>1868</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R22" s="9">
         <v>19</v>
@@ -3478,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB22" s="7">
         <v>9.3000000000000007</v>
@@ -3502,19 +3895,19 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>1874</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R23" s="9">
         <v>19</v>
@@ -3526,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB23" s="7">
         <v>9.3000000000000007</v>
@@ -3545,30 +3938,30 @@
         <v>1725</v>
       </c>
       <c r="AQ23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR23" s="11">
         <v>1810</v>
       </c>
       <c r="AS23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F24">
         <v>1863</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R24" s="9">
         <v>40</v>
@@ -3577,7 +3970,7 @@
         <v>8</v>
       </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB24" s="7">
         <v>8.8000000000000007</v>
@@ -3598,25 +3991,25 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F25">
         <v>1884</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R25" s="9">
         <v>30</v>
       </c>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB25" s="7">
         <v>9.3000000000000007</v>
@@ -3634,19 +4027,19 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26">
         <v>1885</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S26" s="9">
         <v>14</v>
@@ -3658,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB26" s="7">
         <v>11.5</v>
@@ -3674,27 +4067,27 @@
         <v>1780</v>
       </c>
       <c r="AQ26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR26" s="11">
         <v>2000</v>
       </c>
       <c r="AS26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27">
@@ -3703,19 +4096,19 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28">
         <v>1896</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S28" s="9">
         <v>21</v>
@@ -3727,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB28" s="7">
         <v>12.5</v>
@@ -3743,30 +4136,30 @@
         <v>1850</v>
       </c>
       <c r="AQ28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR28" s="11">
         <v>2000</v>
       </c>
       <c r="AS28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F29">
         <v>1896</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R29" s="9">
         <v>20</v>
@@ -3775,7 +4168,7 @@
         <v>14</v>
       </c>
       <c r="Y29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB29" s="7">
         <v>12.5</v>
@@ -3788,30 +4181,30 @@
         <v>1</v>
       </c>
       <c r="AQ29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30">
         <v>1896</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R30" s="9">
         <v>50</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB30" s="7">
         <v>9.5</v>
@@ -3829,25 +4222,25 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31">
         <v>1894</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R31" s="9">
         <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB31" s="7">
         <v>13.9</v>
@@ -3865,19 +4258,19 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F32">
         <v>1894</v>
       </c>
       <c r="J32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S32" s="9">
         <v>28</v>
@@ -3889,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB32" s="7">
         <v>27.2</v>
@@ -3905,30 +4298,30 @@
         <v>1900</v>
       </c>
       <c r="AQ32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR32" s="11">
         <v>2100</v>
       </c>
       <c r="AS32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33">
         <v>1897</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R33" s="9">
         <v>35</v>
@@ -3937,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB33" s="7">
         <v>24.5</v>
@@ -3953,36 +4346,36 @@
         <v>1500</v>
       </c>
       <c r="AO33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP33" s="11">
         <v>1900</v>
       </c>
       <c r="AQ33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34">
         <v>1894</v>
       </c>
       <c r="J34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R34" s="9">
         <v>86</v>
       </c>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB34" s="7">
         <v>25</v>
@@ -3998,30 +4391,30 @@
         <v>1500</v>
       </c>
       <c r="AO34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35">
         <v>1898</v>
       </c>
       <c r="J35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R35" s="9">
         <v>76</v>
       </c>
       <c r="Y35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB35" s="7">
         <v>25</v>
@@ -4037,24 +4430,24 @@
         <v>1700</v>
       </c>
       <c r="AO35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36">
         <v>1913</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P36" s="8">
         <v>1500</v>
@@ -4063,7 +4456,7 @@
         <v>43</v>
       </c>
       <c r="Y36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB36" s="7">
         <v>26.6</v>
@@ -4079,30 +4472,30 @@
         <v>1700</v>
       </c>
       <c r="AO36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F37">
         <v>1894</v>
       </c>
       <c r="J37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R37" s="9">
         <v>75</v>
       </c>
       <c r="Y37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB37" s="7">
         <v>28.8</v>
@@ -4115,33 +4508,33 @@
         <v>1</v>
       </c>
       <c r="AN37" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38">
         <v>1896</v>
       </c>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R38" s="9">
         <v>72</v>
       </c>
       <c r="Y38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB38" s="7">
         <v>28.6</v>
@@ -4157,30 +4550,30 @@
         <v>1500</v>
       </c>
       <c r="AO38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F39">
         <v>1897</v>
       </c>
       <c r="J39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T39" s="9">
         <v>36</v>
       </c>
       <c r="Y39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB39" s="7">
         <v>23.4</v>
@@ -4196,30 +4589,30 @@
         <v>2100</v>
       </c>
       <c r="AS39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F40">
         <v>1897</v>
       </c>
       <c r="J40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S40" s="9">
         <v>36</v>
       </c>
       <c r="Y40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB40" s="7">
         <v>26</v>
@@ -4235,24 +4628,24 @@
         <v>1900</v>
       </c>
       <c r="AQ40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F41">
         <v>1903</v>
       </c>
       <c r="J41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S41" s="9">
         <v>24</v>
@@ -4261,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="Y41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB41" s="7">
         <v>39.200000000000003</v>
@@ -4277,36 +4670,36 @@
         <v>1940</v>
       </c>
       <c r="AQ41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR41" s="11">
         <v>2040</v>
       </c>
       <c r="AS41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F42">
         <v>1904</v>
       </c>
       <c r="J42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U42" s="9">
         <v>24</v>
       </c>
       <c r="Y42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB42" s="7">
         <v>38.700000000000003</v>
@@ -4322,24 +4715,24 @@
         <v>2300</v>
       </c>
       <c r="AU42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F43">
         <v>1908</v>
       </c>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S43" s="9">
         <v>24</v>
@@ -4348,7 +4741,7 @@
         <v>12</v>
       </c>
       <c r="Y43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB43" s="7">
         <v>30.7</v>
@@ -4364,36 +4757,36 @@
         <v>1900</v>
       </c>
       <c r="AQ43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR43" s="11">
         <v>2100</v>
       </c>
       <c r="AS43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44">
         <v>1910</v>
       </c>
       <c r="J44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S44" s="9">
         <v>36</v>
       </c>
       <c r="Y44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB44" s="7">
         <v>30.3</v>
@@ -4409,24 +4802,24 @@
         <v>1900</v>
       </c>
       <c r="AQ44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F45">
         <v>1910</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R45" s="9">
         <v>40</v>
@@ -4435,7 +4828,7 @@
         <v>18</v>
       </c>
       <c r="Y45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB45" s="7">
         <v>37.799999999999997</v>
@@ -4451,36 +4844,36 @@
         <v>1700</v>
       </c>
       <c r="AO45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP45" s="11">
         <v>1900</v>
       </c>
       <c r="AQ45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F46">
         <v>1909</v>
       </c>
       <c r="J46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R46" s="9">
         <v>72</v>
       </c>
       <c r="Y46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB46" s="7">
         <v>34.799999999999997</v>
@@ -4496,30 +4889,30 @@
         <v>1600</v>
       </c>
       <c r="AO46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F47">
         <v>1908</v>
       </c>
       <c r="J47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R47" s="9">
         <v>72</v>
       </c>
       <c r="Y47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB47" s="7">
         <v>31.5</v>
@@ -4532,27 +4925,27 @@
         <v>1</v>
       </c>
       <c r="AN47" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F48">
         <v>1910</v>
       </c>
       <c r="J48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R48" s="9">
         <v>35</v>
@@ -4561,7 +4954,7 @@
         <v>17</v>
       </c>
       <c r="Y48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB48" s="7">
         <v>34.700000000000003</v>
@@ -4574,39 +4967,39 @@
         <v>1</v>
       </c>
       <c r="AN48" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR48" s="11">
         <v>2100</v>
       </c>
       <c r="AS48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49">
         <v>1912</v>
       </c>
       <c r="J49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R49" s="9">
         <v>66</v>
       </c>
       <c r="Y49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB49" s="7">
         <v>14.1</v>
@@ -4619,27 +5012,27 @@
         <v>1</v>
       </c>
       <c r="AN49" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F50">
         <v>1912</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R50" s="9">
         <v>24</v>
@@ -4651,7 +5044,7 @@
         <v>6</v>
       </c>
       <c r="Y50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB50" s="7">
         <v>39</v>
@@ -4667,42 +5060,42 @@
         <v>1600</v>
       </c>
       <c r="AO50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP50" s="11">
         <v>2000</v>
       </c>
       <c r="AQ50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR50" s="11">
         <v>2100</v>
       </c>
       <c r="AS50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F51">
         <v>1912</v>
       </c>
       <c r="J51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R51" s="9">
         <v>64</v>
       </c>
       <c r="Y51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB51" s="7">
         <v>37.700000000000003</v>
@@ -4718,30 +5111,30 @@
         <v>1600</v>
       </c>
       <c r="AO51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52">
         <v>1915</v>
       </c>
       <c r="J52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R52" s="9">
         <v>38</v>
       </c>
       <c r="Y52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB52" s="7">
         <v>17.3</v>
@@ -4754,27 +5147,27 @@
         <v>1</v>
       </c>
       <c r="AN52" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F53">
         <v>1915</v>
       </c>
       <c r="J53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R53" s="9">
         <v>18</v>
@@ -4783,7 +5176,7 @@
         <v>23</v>
       </c>
       <c r="Y53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB53" s="7">
         <v>17.3</v>
@@ -4796,39 +5189,39 @@
         <v>1</v>
       </c>
       <c r="AN53" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP53" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F54">
         <v>1916</v>
       </c>
       <c r="J54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R54" s="9">
         <v>48</v>
       </c>
       <c r="Y54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB54" s="7">
         <v>18.399999999999999</v>
@@ -4844,30 +5237,30 @@
         <v>1600</v>
       </c>
       <c r="AO54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F55">
         <v>1917</v>
       </c>
       <c r="J55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S55" s="9">
         <v>30</v>
       </c>
       <c r="Y55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB55" s="7">
         <v>19</v>
@@ -4883,24 +5276,24 @@
         <v>2050</v>
       </c>
       <c r="AQ55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F56">
         <v>1922</v>
       </c>
       <c r="J56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R56" s="9">
         <v>24</v>
@@ -4909,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="Y56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB56" s="7">
         <v>17.8</v>
@@ -4925,30 +5318,30 @@
         <v>1600</v>
       </c>
       <c r="AO56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP56" s="11">
         <v>2050</v>
       </c>
       <c r="AQ56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F57">
         <v>1928</v>
       </c>
       <c r="J57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R57" s="9">
         <v>40</v>
@@ -4957,7 +5350,7 @@
         <v>18</v>
       </c>
       <c r="Y57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB57" s="7">
         <v>38.700000000000003</v>
@@ -4973,36 +5366,36 @@
         <v>1604</v>
       </c>
       <c r="AO57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP57" s="11">
         <v>2050</v>
       </c>
       <c r="AQ57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F58">
         <v>1927</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R58" s="9">
         <v>72</v>
       </c>
       <c r="Y58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB58" s="7">
         <v>35</v>
@@ -5018,24 +5411,24 @@
         <v>1600</v>
       </c>
       <c r="AO58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F59">
         <v>1928</v>
       </c>
       <c r="J59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S59" s="9">
         <v>40</v>
@@ -5044,7 +5437,7 @@
         <v>18</v>
       </c>
       <c r="Y59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB59" s="7">
         <v>38.700000000000003</v>
@@ -5060,36 +5453,36 @@
         <v>2050</v>
       </c>
       <c r="AQ59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F60">
         <v>1925</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R60" s="9">
         <v>40</v>
       </c>
       <c r="Y60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB60" s="7">
         <v>7.8</v>
@@ -5102,33 +5495,33 @@
         <v>1</v>
       </c>
       <c r="AN60" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AV60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F61">
         <v>1927</v>
       </c>
       <c r="J61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R61" s="9">
         <v>50</v>
       </c>
       <c r="Y61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB61" s="7">
         <v>9.3000000000000007</v>
@@ -5141,33 +5534,33 @@
         <v>1</v>
       </c>
       <c r="AN61" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AV61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F62">
         <v>1927</v>
       </c>
       <c r="J62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R62" s="9">
         <v>57</v>
       </c>
       <c r="Y62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB62" s="7">
         <v>12.9</v>
@@ -5180,36 +5573,36 @@
         <v>1</v>
       </c>
       <c r="AN62" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F63">
         <v>1927</v>
       </c>
       <c r="J63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R63" s="9">
         <v>50</v>
       </c>
       <c r="Y63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB63" s="7">
         <v>9.8000000000000007</v>
@@ -5222,27 +5615,27 @@
         <v>1</v>
       </c>
       <c r="AN63" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AV63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F64">
         <v>1928</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P64" s="8">
         <v>500</v>
@@ -5251,7 +5644,7 @@
         <v>56</v>
       </c>
       <c r="Y64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB64" s="7">
         <v>13.2</v>
@@ -5264,36 +5657,36 @@
         <v>1</v>
       </c>
       <c r="AN64" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F65">
         <v>1928</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R65" s="9">
         <v>78</v>
       </c>
       <c r="Y65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB65" s="7">
         <v>33.5</v>
@@ -5306,33 +5699,33 @@
         <v>1</v>
       </c>
       <c r="AN65" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F66">
         <v>1951</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P66" s="8">
         <v>500</v>
@@ -5341,7 +5734,7 @@
         <v>52</v>
       </c>
       <c r="Y66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB66" s="7">
         <v>33.4</v>
@@ -5357,33 +5750,33 @@
         <v>1</v>
       </c>
       <c r="AN66" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F67">
         <v>1942</v>
       </c>
       <c r="J67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R67" s="9">
         <v>74</v>
       </c>
       <c r="Y67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB67" s="7">
         <v>30.8</v>
@@ -5396,27 +5789,27 @@
         <v>1</v>
       </c>
       <c r="AN67" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68">
         <v>1939</v>
       </c>
       <c r="J68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P68" s="8">
         <v>500</v>
@@ -5425,7 +5818,7 @@
         <v>52</v>
       </c>
       <c r="Y68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB68" s="7">
         <v>33.6</v>
@@ -5438,27 +5831,27 @@
         <v>1</v>
       </c>
       <c r="AN68" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F69">
         <v>1932</v>
       </c>
       <c r="J69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R69" s="9">
         <v>40</v>
@@ -5470,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="Y69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB69" s="7">
         <v>43.9</v>
@@ -5486,42 +5879,42 @@
         <v>1820</v>
       </c>
       <c r="AO69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP69" s="11">
         <v>2300</v>
       </c>
       <c r="AQ69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AR69" s="11">
         <v>2300</v>
       </c>
       <c r="AS69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70">
         <v>1932</v>
       </c>
       <c r="J70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R70" s="9">
         <v>68</v>
       </c>
       <c r="Y70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB70" s="7">
         <v>42.5</v>
@@ -5537,27 +5930,27 @@
         <v>1848</v>
       </c>
       <c r="AO70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F71">
         <v>1951</v>
       </c>
       <c r="J71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R71" s="9">
         <v>24</v>
@@ -5566,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="Y71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB71" s="7">
         <v>44.3</v>
@@ -5582,15 +5975,15 @@
         <v>1848</v>
       </c>
       <c r="AO71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D72" s="6">
         <v>120</v>
@@ -5602,16 +5995,16 @@
         <v>1952</v>
       </c>
       <c r="J72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S72" s="9">
         <v>42</v>
       </c>
       <c r="Y72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB72" s="7">
         <v>37</v>
@@ -5627,15 +6020,15 @@
         <v>2300</v>
       </c>
       <c r="AQ72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D73" s="6">
         <v>120</v>
@@ -5647,10 +6040,10 @@
         <v>1964</v>
       </c>
       <c r="J73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R73" s="9">
         <v>48</v>
@@ -5659,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="Y73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB73" s="7">
         <v>35.299999999999997</v>
@@ -5675,30 +6068,30 @@
         <v>1825</v>
       </c>
       <c r="AO73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP73" s="11">
         <v>2300</v>
       </c>
       <c r="AQ73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F74">
         <v>1939</v>
       </c>
       <c r="J74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R74" s="9">
         <v>40</v>
@@ -5707,7 +6100,7 @@
         <v>18</v>
       </c>
       <c r="Y74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB74" s="7">
         <v>31</v>
@@ -5723,30 +6116,30 @@
         <v>1842</v>
       </c>
       <c r="AO74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP74" s="11">
         <v>2300</v>
       </c>
       <c r="AQ74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F75">
         <v>1939</v>
       </c>
       <c r="J75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R75" s="9">
         <v>32</v>
@@ -5758,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="Y75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB75" s="7">
         <v>30</v>
@@ -5774,21 +6167,21 @@
         <v>1772</v>
       </c>
       <c r="AO75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP75" s="11">
         <v>2180</v>
       </c>
       <c r="AQ75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D76" s="6">
         <v>120</v>
@@ -5797,16 +6190,16 @@
         <v>1939</v>
       </c>
       <c r="J76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R76" s="9">
         <v>72</v>
       </c>
       <c r="Y76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB76" s="7">
         <v>35.200000000000003</v>
@@ -5822,15 +6215,15 @@
         <v>1788</v>
       </c>
       <c r="AO76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77" s="6">
         <v>110</v>
@@ -5842,16 +6235,16 @@
         <v>1963</v>
       </c>
       <c r="J77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R77" s="9">
         <v>87</v>
       </c>
       <c r="Y77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB77" s="7">
         <v>28.7</v>
@@ -5864,18 +6257,18 @@
         <v>1</v>
       </c>
       <c r="AN77" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" s="6">
         <v>100</v>
@@ -5887,10 +6280,10 @@
         <v>1963</v>
       </c>
       <c r="J78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P78" s="8">
         <v>500</v>
@@ -5899,7 +6292,7 @@
         <v>61</v>
       </c>
       <c r="Y78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB78" s="7">
         <v>28.4</v>
@@ -5912,18 +6305,18 @@
         <v>1</v>
       </c>
       <c r="AN78" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D79" s="6">
         <v>140</v>
@@ -5935,16 +6328,16 @@
         <v>1964</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R79" s="9">
         <v>72</v>
       </c>
       <c r="Y79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB79" s="7">
         <v>34</v>
@@ -5960,30 +6353,30 @@
         <v>1790</v>
       </c>
       <c r="AO79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F80">
         <v>1950</v>
       </c>
       <c r="J80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P80" s="8">
         <v>12500</v>
       </c>
       <c r="Y80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB80" s="7">
         <v>30.7</v>
@@ -5998,10 +6391,10 @@
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" s="6">
         <v>140</v>
@@ -6010,10 +6403,10 @@
         <v>1951</v>
       </c>
       <c r="J81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R81" s="9">
         <v>40</v>
@@ -6022,7 +6415,7 @@
         <v>60</v>
       </c>
       <c r="Y81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB81" s="7">
         <v>67</v>
@@ -6038,21 +6431,21 @@
         <v>1900</v>
       </c>
       <c r="AO81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP81" s="11">
         <v>1944</v>
       </c>
       <c r="AQ81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="6">
         <v>120</v>
@@ -6061,16 +6454,16 @@
         <v>1960</v>
       </c>
       <c r="J82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R82" s="9">
         <v>87</v>
       </c>
       <c r="Y82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB82" s="7">
         <v>37</v>
@@ -6086,18 +6479,18 @@
         <v>1</v>
       </c>
       <c r="AN82" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D83" s="6">
         <v>140</v>
@@ -6106,16 +6499,16 @@
         <v>1959</v>
       </c>
       <c r="J83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R83" s="9">
         <v>60</v>
       </c>
       <c r="Y83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB83" s="7">
         <v>34</v>
@@ -6128,18 +6521,18 @@
         <v>1</v>
       </c>
       <c r="AN83" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO83" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D84" s="6">
         <v>140</v>
@@ -6148,16 +6541,16 @@
         <v>1959</v>
       </c>
       <c r="J84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S84" s="9">
         <v>56</v>
       </c>
       <c r="Y84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB84" s="7">
         <v>34.5</v>
@@ -6170,18 +6563,18 @@
         <v>1</v>
       </c>
       <c r="AN84" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D85" s="6">
         <v>100</v>
@@ -6190,16 +6583,16 @@
         <v>1968</v>
       </c>
       <c r="J85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R85" s="9">
         <v>72</v>
       </c>
       <c r="Y85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB85" s="7">
         <v>37</v>
@@ -6215,18 +6608,18 @@
         <v>1</v>
       </c>
       <c r="AN85" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO85" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="6">
         <v>100</v>
@@ -6235,16 +6628,16 @@
         <v>1968</v>
       </c>
       <c r="J86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R86" s="9">
         <v>70</v>
       </c>
       <c r="Y86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB86" s="7">
         <v>37</v>
@@ -6257,18 +6650,18 @@
         <v>1</v>
       </c>
       <c r="AN86" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D87" s="6">
         <v>140</v>
@@ -6277,16 +6670,16 @@
         <v>1969</v>
       </c>
       <c r="J87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R87" s="9">
         <v>45</v>
       </c>
       <c r="Y87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB87" s="7">
         <v>37</v>
@@ -6302,15 +6695,15 @@
         <v>2048</v>
       </c>
       <c r="AO87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D88" s="6">
         <v>160</v>
@@ -6319,19 +6712,19 @@
         <v>1964</v>
       </c>
       <c r="J88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R88" s="9">
         <v>80</v>
       </c>
       <c r="Y88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB88" s="7">
         <v>37</v>
@@ -6347,15 +6740,15 @@
         <v>1901</v>
       </c>
       <c r="AO88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D89" s="6">
         <v>160</v>
@@ -6367,19 +6760,19 @@
         <v>1983</v>
       </c>
       <c r="J89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R89" s="9">
         <v>60</v>
       </c>
       <c r="Y89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB89" s="7">
         <v>37</v>
@@ -6395,15 +6788,15 @@
         <v>1901</v>
       </c>
       <c r="AO89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D90" s="6">
         <v>160</v>
@@ -6415,16 +6808,16 @@
         <v>1974</v>
       </c>
       <c r="J90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S90" s="9">
         <v>48</v>
       </c>
       <c r="Y90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB90" s="7">
         <v>40</v>
@@ -6440,15 +6833,15 @@
         <v>2300</v>
       </c>
       <c r="AQ90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D91" s="6">
         <v>160</v>
@@ -6460,10 +6853,10 @@
         <v>1970</v>
       </c>
       <c r="J91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R91" s="9">
         <v>40</v>
@@ -6472,7 +6865,7 @@
         <v>24</v>
       </c>
       <c r="Y91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB91" s="7">
         <v>37</v>
@@ -6488,21 +6881,21 @@
         <v>1901</v>
       </c>
       <c r="AO91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP91" s="11">
         <v>2300</v>
       </c>
       <c r="AQ91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" s="6">
         <v>160</v>
@@ -6514,16 +6907,16 @@
         <v>1970</v>
       </c>
       <c r="J92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R92" s="9">
         <v>48</v>
       </c>
       <c r="Y92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB92" s="7">
         <v>36.5</v>
@@ -6539,15 +6932,15 @@
         <v>1901</v>
       </c>
       <c r="AO92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93" s="6">
         <v>160</v>
@@ -6556,13 +6949,13 @@
         <v>1973</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M93" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R93" s="9">
         <v>48</v>
@@ -6571,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="Y93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB93" s="7">
         <v>40</v>
@@ -6587,15 +6980,15 @@
         <v>1901</v>
       </c>
       <c r="AO93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D94" s="6">
         <v>160</v>
@@ -6607,16 +7000,16 @@
         <v>1983</v>
       </c>
       <c r="J94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R94" s="9">
         <v>80</v>
       </c>
       <c r="Y94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB94" s="7">
         <v>40</v>
@@ -6629,18 +7022,18 @@
         <v>1</v>
       </c>
       <c r="AN94" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D95" s="6">
         <v>160</v>
@@ -6652,16 +7045,16 @@
         <v>1983</v>
       </c>
       <c r="J95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R95" s="9">
         <v>72</v>
       </c>
       <c r="Y95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB95" s="7">
         <v>40</v>
@@ -6674,18 +7067,18 @@
         <v>1</v>
       </c>
       <c r="AN95" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" s="6">
         <v>160</v>
@@ -6694,16 +7087,16 @@
         <v>1972</v>
       </c>
       <c r="J96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S96" s="9">
         <v>64</v>
       </c>
       <c r="Y96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB96" s="7">
         <v>40</v>
@@ -6716,18 +7109,18 @@
         <v>1</v>
       </c>
       <c r="AP96" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D97" s="6">
         <v>160</v>
@@ -6736,19 +7129,19 @@
         <v>1989</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S97" s="9">
         <v>30</v>
       </c>
       <c r="Y97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB97" s="7">
         <v>37.5</v>
@@ -6764,18 +7157,18 @@
         <v>1</v>
       </c>
       <c r="AP97" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98" s="6">
         <v>160</v>
@@ -6784,13 +7177,13 @@
         <v>1989</v>
       </c>
       <c r="J98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R98" s="9">
         <v>12</v>
@@ -6799,7 +7192,7 @@
         <v>18</v>
       </c>
       <c r="Y98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB98" s="7">
         <v>37.5</v>
@@ -6815,24 +7208,24 @@
         <v>1</v>
       </c>
       <c r="AN98" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP98" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" s="6">
         <v>160</v>
@@ -6841,16 +7234,16 @@
         <v>1993</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R99" s="9">
         <v>48</v>
       </c>
       <c r="Y99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB99" s="7">
         <v>36</v>
@@ -6863,18 +7256,18 @@
         <v>1</v>
       </c>
       <c r="AN99" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D100" s="13">
         <v>160</v>
@@ -6883,10 +7276,10 @@
         <v>1982</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P100" s="14"/>
       <c r="Q100" s="15"/>
@@ -6900,7 +7293,7 @@
       <c r="U100" s="15"/>
       <c r="V100" s="15"/>
       <c r="Y100" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB100" s="16">
         <v>54</v>
@@ -6920,10 +7313,10 @@
     </row>
     <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D101" s="6">
         <v>160</v>
@@ -6932,16 +7325,16 @@
         <v>1982</v>
       </c>
       <c r="J101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R101" s="9">
         <v>74</v>
       </c>
       <c r="Y101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB101" s="7">
         <v>54</v>
@@ -6957,18 +7350,18 @@
         <v>1</v>
       </c>
       <c r="AN101" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D102" s="6">
         <v>160</v>
@@ -6977,16 +7370,16 @@
         <v>1982</v>
       </c>
       <c r="J102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S102" s="9">
         <v>60</v>
       </c>
       <c r="Y102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB102" s="7">
         <v>54</v>
@@ -6999,18 +7392,18 @@
         <v>1</v>
       </c>
       <c r="AP102" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AQ102" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D103" s="6">
         <v>160</v>
@@ -7019,10 +7412,10 @@
         <v>1982</v>
       </c>
       <c r="J103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R103" s="9">
         <v>10</v>
@@ -7031,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="Y103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB103" s="7">
         <v>54</v>
@@ -7044,18 +7437,18 @@
         <v>1</v>
       </c>
       <c r="AN103" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AO103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D104" s="6">
         <v>160</v>
@@ -7064,16 +7457,16 @@
         <v>1982</v>
       </c>
       <c r="J104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R104" s="9">
         <v>72</v>
       </c>
       <c r="Y104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB104" s="7">
         <v>54</v>
@@ -7086,18 +7479,18 @@
         <v>1</v>
       </c>
       <c r="AN104" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D105" s="6">
         <v>160</v>
@@ -7106,10 +7499,10 @@
         <v>2002</v>
       </c>
       <c r="J105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R105" s="9">
         <v>14</v>
@@ -7118,7 +7511,7 @@
         <v>33</v>
       </c>
       <c r="Y105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB105" s="7">
         <v>52</v>
@@ -7134,24 +7527,24 @@
         <v>1</v>
       </c>
       <c r="AN105" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP105" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D106" s="6">
         <v>160</v>
@@ -7160,10 +7553,10 @@
         <v>2002</v>
       </c>
       <c r="J106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R106" s="9">
         <v>102</v>
@@ -7172,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB106" s="7">
         <v>50</v>
@@ -7185,18 +7578,18 @@
         <v>1</v>
       </c>
       <c r="AN106" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D107" s="6">
         <v>160</v>
@@ -7205,16 +7598,16 @@
         <v>2002</v>
       </c>
       <c r="J107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R107" s="9">
         <v>110</v>
       </c>
       <c r="Y107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB107" s="7">
         <v>50</v>
@@ -7227,18 +7620,18 @@
         <v>1</v>
       </c>
       <c r="AN107" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D108" s="6">
         <v>160</v>
@@ -7247,10 +7640,10 @@
         <v>2009</v>
       </c>
       <c r="J108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R108" s="9">
         <v>19</v>
@@ -7259,7 +7652,7 @@
         <v>33</v>
       </c>
       <c r="Y108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB108" s="7">
         <v>50</v>
@@ -7272,16 +7665,16 @@
         <v>1</v>
       </c>
       <c r="AN108" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AO108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP108" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:46" x14ac:dyDescent="0.25">
@@ -7488,7 +7881,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7502,7 +7895,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -7547,10 +7940,10 @@
         <v>72</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -7559,7 +7952,7 @@
         <v>131</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V1" t="s">
         <v>48</v>
@@ -7657,13 +8050,13 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
         <v>202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>203</v>
       </c>
       <c r="F2" s="6">
         <v>50</v>
@@ -7675,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S2" s="1"/>
       <c r="AF2" s="7">
@@ -7694,15 +8087,15 @@
         <v>0</v>
       </c>
       <c r="AY2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="6">
         <v>50</v>
@@ -7714,7 +8107,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF3" s="7">
         <v>21</v>
@@ -7732,18 +8125,18 @@
         <v>0</v>
       </c>
       <c r="AX3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K4">
         <v>1856</v>
@@ -7752,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF4" s="7">
         <v>28.8</v>
@@ -7770,15 +8163,15 @@
         <v>0</v>
       </c>
       <c r="AY4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5">
         <v>1856</v>
@@ -7787,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF5" s="7">
         <v>29</v>
@@ -7805,18 +8198,18 @@
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" t="s">
-        <v>208</v>
       </c>
       <c r="K6">
         <v>1856</v>
@@ -7825,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF6" s="7">
         <v>29.5</v>
@@ -7843,18 +8236,18 @@
         <v>0</v>
       </c>
       <c r="AY6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7">
         <v>1856</v>
@@ -7863,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF7" s="7">
         <v>25.9</v>
@@ -7881,27 +8274,27 @@
         <v>0</v>
       </c>
       <c r="AY7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K8">
         <v>1858</v>
       </c>
       <c r="L8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF8" s="7">
         <v>22.6</v>
@@ -7919,24 +8312,24 @@
         <v>0</v>
       </c>
       <c r="AY8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K9">
         <v>1858</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF9" s="7">
         <v>27.7</v>
@@ -7954,348 +8347,348 @@
         <v>0</v>
       </c>
       <c r="AX9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F10" s="6">
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM15" s="1"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM16" s="1"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM17" s="1"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM18" s="1"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM27" s="1"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM31" s="1"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM32" s="1"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM33" s="1"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM34" s="1"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM36" s="1"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM37" s="1"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM42" s="1"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM43" s="1"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM44" s="1"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM45" s="1"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM46" s="1"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM47" s="1"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM48" s="1"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM49" s="1"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM50" s="1"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM51" s="1"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM52" s="1"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM53" s="1"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM54" s="1"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM55" s="1"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM56" s="1"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM57" s="1"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM59" s="1"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM60" s="1"/>
     </row>
